--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.02847633333333</v>
+        <v>12.57438866666667</v>
       </c>
       <c r="H2">
-        <v>66.085429</v>
+        <v>37.723166</v>
       </c>
       <c r="I2">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="J2">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6732596666666666</v>
+        <v>0.9379940000000001</v>
       </c>
       <c r="N2">
-        <v>2.019779</v>
+        <v>2.813982</v>
       </c>
       <c r="O2">
-        <v>0.05029912702290297</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="P2">
-        <v>0.05029912702290297</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="Q2">
-        <v>14.83088463335455</v>
+        <v>11.79470112300133</v>
       </c>
       <c r="R2">
-        <v>133.477961700191</v>
+        <v>106.152310107012</v>
       </c>
       <c r="S2">
-        <v>0.01699495368149811</v>
+        <v>0.0148593334703459</v>
       </c>
       <c r="T2">
-        <v>0.01699495368149812</v>
+        <v>0.0148593334703459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.02847633333333</v>
+        <v>12.57438866666667</v>
       </c>
       <c r="H3">
-        <v>66.085429</v>
+        <v>37.723166</v>
       </c>
       <c r="I3">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="J3">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>24.066763</v>
       </c>
       <c r="O3">
-        <v>0.5993413978297139</v>
+        <v>0.5479644492410116</v>
       </c>
       <c r="P3">
-        <v>0.5993413978297139</v>
+        <v>0.5479644492410115</v>
       </c>
       <c r="Q3">
-        <v>176.7180397218141</v>
+        <v>100.8749439701842</v>
       </c>
       <c r="R3">
-        <v>1590.462357496327</v>
+        <v>907.874495731658</v>
       </c>
       <c r="S3">
-        <v>0.2025040969574358</v>
+        <v>0.1270854102722698</v>
       </c>
       <c r="T3">
-        <v>0.2025040969574358</v>
+        <v>0.1270854102722697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.02847633333333</v>
+        <v>12.57438866666667</v>
       </c>
       <c r="H4">
-        <v>66.085429</v>
+        <v>37.723166</v>
       </c>
       <c r="I4">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="J4">
-        <v>0.3378777065804683</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.689602333333333</v>
+        <v>5.642847666666667</v>
       </c>
       <c r="N4">
-        <v>14.068807</v>
+        <v>16.928543</v>
       </c>
       <c r="O4">
-        <v>0.3503594751473832</v>
+        <v>0.3854377816180673</v>
       </c>
       <c r="P4">
-        <v>0.3503594751473832</v>
+        <v>0.3854377816180672</v>
       </c>
       <c r="Q4">
-        <v>103.3047940125781</v>
+        <v>70.95535974745978</v>
       </c>
       <c r="R4">
-        <v>929.743146113203</v>
+        <v>638.598237727138</v>
       </c>
       <c r="S4">
-        <v>0.1183786559415344</v>
+        <v>0.08939178203843867</v>
       </c>
       <c r="T4">
-        <v>0.1183786559415344</v>
+        <v>0.08939178203843866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.174732</v>
+        <v>12.57438866666667</v>
       </c>
       <c r="H5">
-        <v>48.524196</v>
+        <v>37.723166</v>
       </c>
       <c r="I5">
-        <v>0.2480916641721602</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="J5">
-        <v>0.2480916641721602</v>
+        <v>0.2319227286520073</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6732596666666666</v>
+        <v>0.037004</v>
       </c>
       <c r="N5">
-        <v>2.019779</v>
+        <v>0.111012</v>
       </c>
       <c r="O5">
-        <v>0.05029912702290297</v>
+        <v>0.002527578363535768</v>
       </c>
       <c r="P5">
-        <v>0.05029912702290297</v>
+        <v>0.002527578363535768</v>
       </c>
       <c r="Q5">
-        <v>10.88979467474267</v>
+        <v>0.4653026782213333</v>
       </c>
       <c r="R5">
-        <v>98.008152072684</v>
+        <v>4.187724103992</v>
       </c>
       <c r="S5">
-        <v>0.01247879412951887</v>
+        <v>0.0005862028709529907</v>
       </c>
       <c r="T5">
-        <v>0.01247879412951887</v>
+        <v>0.0005862028709529906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>48.524196</v>
       </c>
       <c r="I6">
-        <v>0.2480916641721602</v>
+        <v>0.2983276626878248</v>
       </c>
       <c r="J6">
-        <v>0.2480916641721602</v>
+        <v>0.2983276626878247</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.022254333333334</v>
+        <v>0.9379940000000001</v>
       </c>
       <c r="N6">
-        <v>24.066763</v>
+        <v>2.813982</v>
       </c>
       <c r="O6">
-        <v>0.5993413978297139</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="P6">
-        <v>0.5993413978297139</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="Q6">
-        <v>129.7578138775054</v>
+        <v>15.171801567608</v>
       </c>
       <c r="R6">
-        <v>1167.820324897548</v>
+        <v>136.546214108472</v>
       </c>
       <c r="S6">
-        <v>0.1486916047948424</v>
+        <v>0.01911391026258042</v>
       </c>
       <c r="T6">
-        <v>0.1486916047948424</v>
+        <v>0.01911391026258041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>48.524196</v>
       </c>
       <c r="I7">
-        <v>0.2480916641721602</v>
+        <v>0.2983276626878248</v>
       </c>
       <c r="J7">
-        <v>0.2480916641721602</v>
+        <v>0.2983276626878247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.689602333333333</v>
+        <v>8.022254333333334</v>
       </c>
       <c r="N7">
-        <v>14.068807</v>
+        <v>24.066763</v>
       </c>
       <c r="O7">
-        <v>0.3503594751473832</v>
+        <v>0.5479644492410116</v>
       </c>
       <c r="P7">
-        <v>0.3503594751473832</v>
+        <v>0.5479644492410115</v>
       </c>
       <c r="Q7">
-        <v>75.85306092824135</v>
+        <v>129.7578138775054</v>
       </c>
       <c r="R7">
-        <v>682.677548354172</v>
+        <v>1167.820324897548</v>
       </c>
       <c r="S7">
-        <v>0.08692126524779889</v>
+        <v>0.1634729533780922</v>
       </c>
       <c r="T7">
-        <v>0.08692126524779889</v>
+        <v>0.1634729533780921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.40225133333333</v>
+        <v>16.174732</v>
       </c>
       <c r="H8">
-        <v>31.206754</v>
+        <v>48.524196</v>
       </c>
       <c r="I8">
-        <v>0.1595520620943666</v>
+        <v>0.2983276626878248</v>
       </c>
       <c r="J8">
-        <v>0.1595520620943666</v>
+        <v>0.2983276626878247</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6732596666666666</v>
+        <v>5.642847666666667</v>
       </c>
       <c r="N8">
-        <v>2.019779</v>
+        <v>16.928543</v>
       </c>
       <c r="O8">
-        <v>0.05029912702290297</v>
+        <v>0.3854377816180673</v>
       </c>
       <c r="P8">
-        <v>0.05029912702290297</v>
+        <v>0.3854377816180672</v>
       </c>
       <c r="Q8">
-        <v>7.003416265262889</v>
+        <v>91.27154872515869</v>
       </c>
       <c r="R8">
-        <v>63.030746387366</v>
+        <v>821.4439385264282</v>
       </c>
       <c r="S8">
-        <v>0.008025329438050649</v>
+        <v>0.1149867525016983</v>
       </c>
       <c r="T8">
-        <v>0.008025329438050649</v>
+        <v>0.1149867525016982</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.40225133333333</v>
+        <v>16.174732</v>
       </c>
       <c r="H9">
-        <v>31.206754</v>
+        <v>48.524196</v>
       </c>
       <c r="I9">
-        <v>0.1595520620943666</v>
+        <v>0.2983276626878248</v>
       </c>
       <c r="J9">
-        <v>0.1595520620943666</v>
+        <v>0.2983276626878247</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.022254333333334</v>
+        <v>0.037004</v>
       </c>
       <c r="N9">
-        <v>24.066763</v>
+        <v>0.111012</v>
       </c>
       <c r="O9">
-        <v>0.5993413978297139</v>
+        <v>0.002527578363535768</v>
       </c>
       <c r="P9">
-        <v>0.5993413978297139</v>
+        <v>0.002527578363535768</v>
       </c>
       <c r="Q9">
-        <v>83.44950583525579</v>
+        <v>0.5985297829280001</v>
       </c>
       <c r="R9">
-        <v>751.0455525173021</v>
+        <v>5.386768046352</v>
       </c>
       <c r="S9">
-        <v>0.09562615592225099</v>
+        <v>0.0007540465454539428</v>
       </c>
       <c r="T9">
-        <v>0.09562615592225099</v>
+        <v>0.0007540465454539426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.40225133333333</v>
+        <v>13.006622</v>
       </c>
       <c r="H10">
-        <v>31.206754</v>
+        <v>39.019866</v>
       </c>
       <c r="I10">
-        <v>0.1595520620943666</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="J10">
-        <v>0.1595520620943666</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.689602333333333</v>
+        <v>0.9379940000000001</v>
       </c>
       <c r="N10">
-        <v>14.068807</v>
+        <v>2.813982</v>
       </c>
       <c r="O10">
-        <v>0.3503594751473832</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="P10">
-        <v>0.3503594751473832</v>
+        <v>0.06407019077738541</v>
       </c>
       <c r="Q10">
-        <v>48.78242212471978</v>
+        <v>12.200133396268</v>
       </c>
       <c r="R10">
-        <v>439.041799122478</v>
+        <v>109.801200566412</v>
       </c>
       <c r="S10">
-        <v>0.05590057673406498</v>
+        <v>0.01537010973209968</v>
       </c>
       <c r="T10">
-        <v>0.05590057673406498</v>
+        <v>0.01537010973209968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.59113633333333</v>
+        <v>13.006622</v>
       </c>
       <c r="H11">
-        <v>49.773409</v>
+        <v>39.019866</v>
       </c>
       <c r="I11">
-        <v>0.254478567153005</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="J11">
-        <v>0.2544785671530049</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6732596666666666</v>
+        <v>8.022254333333334</v>
       </c>
       <c r="N11">
-        <v>2.019779</v>
+        <v>24.066763</v>
       </c>
       <c r="O11">
-        <v>0.05029912702290297</v>
+        <v>0.5479644492410116</v>
       </c>
       <c r="P11">
-        <v>0.05029912702290297</v>
+        <v>0.5479644492410115</v>
       </c>
       <c r="Q11">
-        <v>11.17014291740122</v>
+        <v>104.3424297015287</v>
       </c>
       <c r="R11">
-        <v>100.531286256611</v>
+        <v>939.081867313758</v>
       </c>
       <c r="S11">
-        <v>0.01280004977383534</v>
+        <v>0.1314538572764277</v>
       </c>
       <c r="T11">
-        <v>0.01280004977383534</v>
+        <v>0.1314538572764277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.59113633333333</v>
+        <v>13.006622</v>
       </c>
       <c r="H12">
-        <v>49.773409</v>
+        <v>39.019866</v>
       </c>
       <c r="I12">
-        <v>0.254478567153005</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="J12">
-        <v>0.2544785671530049</v>
+        <v>0.2398948644542636</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.022254333333334</v>
+        <v>5.642847666666667</v>
       </c>
       <c r="N12">
-        <v>24.066763</v>
+        <v>16.928543</v>
       </c>
       <c r="O12">
-        <v>0.5993413978297139</v>
+        <v>0.3854377816180673</v>
       </c>
       <c r="P12">
-        <v>0.5993413978297139</v>
+        <v>0.3854377816180672</v>
       </c>
       <c r="Q12">
-        <v>133.0983153450075</v>
+        <v>73.39438660391534</v>
       </c>
       <c r="R12">
-        <v>1197.884838105067</v>
+        <v>660.549479435238</v>
       </c>
       <c r="S12">
-        <v>0.1525195401551847</v>
+        <v>0.09246454437681831</v>
       </c>
       <c r="T12">
-        <v>0.1525195401551847</v>
+        <v>0.09246454437681829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.006622</v>
+      </c>
+      <c r="H13">
+        <v>39.019866</v>
+      </c>
+      <c r="I13">
+        <v>0.2398948644542636</v>
+      </c>
+      <c r="J13">
+        <v>0.2398948644542636</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.037004</v>
+      </c>
+      <c r="N13">
+        <v>0.111012</v>
+      </c>
+      <c r="O13">
+        <v>0.002527578363535768</v>
+      </c>
+      <c r="P13">
+        <v>0.002527578363535768</v>
+      </c>
+      <c r="Q13">
+        <v>0.481297040488</v>
+      </c>
+      <c r="R13">
+        <v>4.331673364392</v>
+      </c>
+      <c r="S13">
+        <v>0.0006063530689179425</v>
+      </c>
+      <c r="T13">
+        <v>0.0006063530689179424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.46226666666667</v>
+      </c>
+      <c r="H14">
+        <v>37.3868</v>
+      </c>
+      <c r="I14">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="J14">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9379940000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.813982</v>
+      </c>
+      <c r="O14">
+        <v>0.06407019077738541</v>
+      </c>
+      <c r="P14">
+        <v>0.06407019077738541</v>
+      </c>
+      <c r="Q14">
+        <v>11.68953135973334</v>
+      </c>
+      <c r="R14">
+        <v>105.2057822376</v>
+      </c>
+      <c r="S14">
+        <v>0.01472683731235941</v>
+      </c>
+      <c r="T14">
+        <v>0.01472683731235941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.46226666666667</v>
+      </c>
+      <c r="H15">
+        <v>37.3868</v>
+      </c>
+      <c r="I15">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="J15">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.022254333333334</v>
+      </c>
+      <c r="N15">
+        <v>24.066763</v>
+      </c>
+      <c r="O15">
+        <v>0.5479644492410116</v>
+      </c>
+      <c r="P15">
+        <v>0.5479644492410115</v>
+      </c>
+      <c r="Q15">
+        <v>99.97547276982223</v>
+      </c>
+      <c r="R15">
+        <v>899.7792549284001</v>
+      </c>
+      <c r="S15">
+        <v>0.125952228314222</v>
+      </c>
+      <c r="T15">
+        <v>0.125952228314222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>16.59113633333333</v>
-      </c>
-      <c r="H13">
-        <v>49.773409</v>
-      </c>
-      <c r="I13">
-        <v>0.254478567153005</v>
-      </c>
-      <c r="J13">
-        <v>0.2544785671530049</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.689602333333333</v>
-      </c>
-      <c r="N13">
-        <v>14.068807</v>
-      </c>
-      <c r="O13">
-        <v>0.3503594751473832</v>
-      </c>
-      <c r="P13">
-        <v>0.3503594751473832</v>
-      </c>
-      <c r="Q13">
-        <v>77.80583166145145</v>
-      </c>
-      <c r="R13">
-        <v>700.252484953063</v>
-      </c>
-      <c r="S13">
-        <v>0.08915897722398494</v>
-      </c>
-      <c r="T13">
-        <v>0.08915897722398491</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.46226666666667</v>
+      </c>
+      <c r="H16">
+        <v>37.3868</v>
+      </c>
+      <c r="I16">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="J16">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.642847666666667</v>
+      </c>
+      <c r="N16">
+        <v>16.928543</v>
+      </c>
+      <c r="O16">
+        <v>0.3854377816180673</v>
+      </c>
+      <c r="P16">
+        <v>0.3854377816180672</v>
+      </c>
+      <c r="Q16">
+        <v>70.32267238137779</v>
+      </c>
+      <c r="R16">
+        <v>632.9040514324</v>
+      </c>
+      <c r="S16">
+        <v>0.08859470270111207</v>
+      </c>
+      <c r="T16">
+        <v>0.08859470270111205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.46226666666667</v>
+      </c>
+      <c r="H17">
+        <v>37.3868</v>
+      </c>
+      <c r="I17">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="J17">
+        <v>0.2298547442059043</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.037004</v>
+      </c>
+      <c r="N17">
+        <v>0.111012</v>
+      </c>
+      <c r="O17">
+        <v>0.002527578363535768</v>
+      </c>
+      <c r="P17">
+        <v>0.002527578363535768</v>
+      </c>
+      <c r="Q17">
+        <v>0.4611537157333334</v>
+      </c>
+      <c r="R17">
+        <v>4.1503834416</v>
+      </c>
+      <c r="S17">
+        <v>0.0005809758782108922</v>
+      </c>
+      <c r="T17">
+        <v>0.0005809758782108922</v>
       </c>
     </row>
   </sheetData>
